--- a/src/main/resources/excel/jchsCellphoneRaffleTickets.xlsx
+++ b/src/main/resources/excel/jchsCellphoneRaffleTickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ\git\magic\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1242CE7A-3B16-48A3-AE2E-7A276E622FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CB0DF8-A2E1-40FF-8219-F99D1E21FDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <t>CUSTOMER</t>
   </si>
   <si>
-    <t>JCHS CELLPHONE RAFFLE</t>
+    <t>JCHS CELLPHONE RAFFLE PROMO</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
